--- a/nodes_DXB.xlsx
+++ b/nodes_DXB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\iCloudDrive\MSc\2024-2025\Q3\AE4422-20\Python Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAFE425-0FDE-488F-93C4-56056E678474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31261E59-CFAF-4E6D-A536-726F50670DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{2631F39B-5474-4585-B2F3-6920B4A1DD9F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17B44DF-ADA8-4D07-9CA6-CB04B890EB2D}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,197 +888,253 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48">
-        <v>245</v>
-      </c>
-      <c r="C48">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>110</v>
       </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49">
-        <v>170</v>
-      </c>
-      <c r="C49">
+      <c r="C30">
+        <v>525</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>110</v>
       </c>
-      <c r="D49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50">
-        <v>100</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51">
-        <v>100</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52">
-        <v>-100</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53">
-        <v>-100</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54">
-        <v>-100</v>
-      </c>
-      <c r="C54">
-        <v>200</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55">
-        <v>170</v>
-      </c>
-      <c r="C55">
-        <v>290</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56">
-        <v>245</v>
-      </c>
-      <c r="C56">
-        <v>290</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57">
-        <v>335</v>
-      </c>
-      <c r="C57">
-        <v>290</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58">
-        <v>410</v>
-      </c>
-      <c r="C58">
-        <v>290</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59">
-        <v>485</v>
-      </c>
-      <c r="C59">
-        <v>290</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60">
-        <v>560</v>
-      </c>
-      <c r="C60">
-        <v>290</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2</v>
+      <c r="C31">
+        <v>675</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>110</v>
+      </c>
+      <c r="C32">
+        <v>790</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>280</v>
+      </c>
+      <c r="C33">
+        <v>505</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>280</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>280</v>
+      </c>
+      <c r="C35">
+        <v>695</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>280</v>
+      </c>
+      <c r="C36">
+        <v>790</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>220</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>380</v>
+      </c>
+      <c r="C38">
+        <v>505</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>380</v>
+      </c>
+      <c r="C39">
+        <v>600</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>380</v>
+      </c>
+      <c r="C40">
+        <v>695</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>380</v>
+      </c>
+      <c r="C41">
+        <v>790</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>480</v>
+      </c>
+      <c r="C42">
+        <v>505</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>480</v>
+      </c>
+      <c r="C43">
+        <v>600</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>480</v>
+      </c>
+      <c r="C44">
+        <v>695</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>480</v>
+      </c>
+      <c r="C45">
+        <v>790</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>195</v>
+      </c>
+      <c r="C46">
+        <v>790</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>635</v>
+        <v>245</v>
       </c>
       <c r="C61">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
@@ -1086,15 +1142,197 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>170</v>
+      </c>
+      <c r="C62">
+        <v>110</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>-100</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>-100</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>-100</v>
+      </c>
+      <c r="C67">
+        <v>200</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>170</v>
+      </c>
+      <c r="C68">
+        <v>290</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>245</v>
+      </c>
+      <c r="C69">
+        <v>290</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70">
+        <v>335</v>
+      </c>
+      <c r="C70">
+        <v>290</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71">
+        <v>410</v>
+      </c>
+      <c r="C71">
+        <v>290</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>485</v>
+      </c>
+      <c r="C72">
+        <v>290</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73">
+        <v>560</v>
+      </c>
+      <c r="C73">
+        <v>290</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>635</v>
+      </c>
+      <c r="C74">
+        <v>290</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>25</v>
       </c>
-      <c r="B62">
+      <c r="B75">
         <v>700</v>
       </c>
-      <c r="C62">
+      <c r="C75">
         <v>290</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D75" t="s">
         <v>2</v>
       </c>
     </row>

--- a/nodes_DXB.xlsx
+++ b/nodes_DXB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\PycharmProjects\AE4422-20_G01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\iCloudDrive\MSc\2024-2025\Q3\AE4422-20\Python Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8546177E-AA37-48C0-8C13-40516FA65711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7822A-CB3D-4651-9099-EA07F9893D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="10440" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>rwy_d</t>
+  </si>
+  <si>
+    <t>rwy_a</t>
+  </si>
+  <si>
+    <t>gate</t>
   </si>
 </sst>
 </file>
@@ -73,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -389,19 +396,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -429,7 +436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -443,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -457,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -471,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -485,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -499,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -513,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -527,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -541,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -555,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -569,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -583,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -597,7 +604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -611,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -625,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -639,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -653,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -667,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -681,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>21</v>
       </c>
@@ -695,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>22</v>
       </c>
@@ -709,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23</v>
       </c>
@@ -723,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>24</v>
       </c>
@@ -737,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>25</v>
       </c>
@@ -751,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>26</v>
       </c>
@@ -765,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>27</v>
       </c>
@@ -779,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>28</v>
       </c>
@@ -793,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>29</v>
       </c>
@@ -807,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30</v>
       </c>
@@ -821,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>31</v>
       </c>
@@ -835,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>32</v>
       </c>
@@ -849,7 +856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>33</v>
       </c>
@@ -863,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>34</v>
       </c>
@@ -877,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>35</v>
       </c>
@@ -891,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>36</v>
       </c>
@@ -905,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>37</v>
       </c>
@@ -919,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>38</v>
       </c>
@@ -933,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>39</v>
       </c>
@@ -947,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>40</v>
       </c>
@@ -961,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>41</v>
       </c>
@@ -975,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>42</v>
       </c>
@@ -989,7 +996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1003,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1031,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1059,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1073,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1087,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1101,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1129,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1143,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1185,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1213,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1255,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1267,6 +1274,1154 @@
       </c>
       <c r="D62" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>1.5</v>
+      </c>
+      <c r="C63">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>-1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>2.5</v>
+      </c>
+      <c r="C65">
+        <v>-1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>-1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>10.5</v>
+      </c>
+      <c r="C67">
+        <v>-1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>-1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>-1.5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>2.5</v>
+      </c>
+      <c r="C70">
+        <v>-1.5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>10.5</v>
+      </c>
+      <c r="C71">
+        <v>-1.5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>-1.5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>0.5</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>2.5</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1.5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0.5</v>
+      </c>
+      <c r="C79">
+        <v>1.5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1.5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>1.5</v>
+      </c>
+      <c r="C81">
+        <v>1.5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>1.5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>2.5</v>
+      </c>
+      <c r="C83">
+        <v>1.5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>1.5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>3.5</v>
+      </c>
+      <c r="C85">
+        <v>1.5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>1.5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>5.5</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>6.5</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>1.5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>6.5</v>
+      </c>
+      <c r="C93">
+        <v>1.5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>8.5</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>1.5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>8.5</v>
+      </c>
+      <c r="C97">
+        <v>1.5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>9.5</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>9.5</v>
+      </c>
+      <c r="C99">
+        <v>1.5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>103</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>107</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>108</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>109</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>110</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>111</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>112</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>113</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>114</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>115</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>116</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>117</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>118</v>
+      </c>
+      <c r="B118" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>119</v>
+      </c>
+      <c r="B119" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>120</v>
+      </c>
+      <c r="B120" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>121</v>
+      </c>
+      <c r="B121" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>122</v>
+      </c>
+      <c r="B122" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>123</v>
+      </c>
+      <c r="B123" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>124</v>
+      </c>
+      <c r="B124" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>126</v>
+      </c>
+      <c r="B126" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>127</v>
+      </c>
+      <c r="B127" s="1">
+        <v>6.64</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>128</v>
+      </c>
+      <c r="B128" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>129</v>
+      </c>
+      <c r="B129" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>130</v>
+      </c>
+      <c r="B130" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>131</v>
+      </c>
+      <c r="B131" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>132</v>
+      </c>
+      <c r="B132" s="1">
+        <v>6</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>133</v>
+      </c>
+      <c r="B133" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>134</v>
+      </c>
+      <c r="B134" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>135</v>
+      </c>
+      <c r="B135" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>137</v>
+      </c>
+      <c r="B137" s="1">
+        <v>8.98</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>138</v>
+      </c>
+      <c r="B138" s="1">
+        <v>8.98</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>139</v>
+      </c>
+      <c r="B139" s="1">
+        <v>8.98</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>140</v>
+      </c>
+      <c r="B140" s="1">
+        <v>8.98</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>9.02</v>
+      </c>
+      <c r="C141">
+        <v>0.86</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>9.02</v>
+      </c>
+      <c r="C142">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>9.02</v>
+      </c>
+      <c r="C143">
+        <v>1.36</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>9.02</v>
+      </c>
+      <c r="C144">
+        <v>1.64</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
